--- a/SDET/testData/testScriptData.xlsx
+++ b/SDET/testData/testScriptData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SR Studio\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A6A7E-7FC7-4506-9E09-C52E3151AE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5DEECF7F-4300-4EE0-A363-3DEDF91D8350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="19425" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:C4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,17 +409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +439,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +459,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +474,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -502,17 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB901F64-B97D-4099-B7B0-E50AA34C6726}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
